--- a/ESG_Indigenous_Economies_Paper/01_Literature_Review/Summaries/summaries_log.xlsx
+++ b/ESG_Indigenous_Economies_Paper/01_Literature_Review/Summaries/summaries_log.xlsx
@@ -1,20 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28730"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\New folder\ESG\ESG_Indigenous_Economies_Paper\01_Literature_Review\Summaries\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD7365C5-43D3-42F7-9CCD-9C67A4FB584D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>Date</t>
   </si>
@@ -32,13 +38,73 @@
   </si>
   <si>
     <t>Linked Section</t>
+  </si>
+  <si>
+    <t>BRSR Framework (EY)</t>
+  </si>
+  <si>
+    <t>https://www.ey.com/.../ey-business-responsibility-and-sustainability-reporting.pdf</t>
+  </si>
+  <si>
+    <t>BRSR brings structure to ESG reporting in India by aligning with GRI, SASB and other global norms.</t>
+  </si>
+  <si>
+    <t>Forms the compliance basis for aligning tribal models. BRSR indicators can be mirrored in model scoring.</t>
+  </si>
+  <si>
+    <t>Lit Review, Model Variables, ESG Score Matrix</t>
+  </si>
+  <si>
+    <t>TEK in ESG Frameworks</t>
+  </si>
+  <si>
+    <t>https://prism.sustainability-directory.com/...</t>
+  </si>
+  <si>
+    <t>TEK offers holistic, community-based sustainability logic resonant with ESG's non-financial focus.</t>
+  </si>
+  <si>
+    <t>Justifies tribal knowledge as an ESG-aligned input for modular scalability.</t>
+  </si>
+  <si>
+    <t>Lit Review, Model Design, Case Logic</t>
+  </si>
+  <si>
+    <t>Inclusion of Biodiversity into ESG</t>
+  </si>
+  <si>
+    <t>https://eprints.whiterose.ac.uk/208764/7/...</t>
+  </si>
+  <si>
+    <t>Biodiversity and ecosystem loss can be accounted as explicit ESG liabilities.</t>
+  </si>
+  <si>
+    <t>Supports inclusion of biodiversity outcomes (e.g. tribal forest management) in ESG ‘E’ scoring.</t>
+  </si>
+  <si>
+    <t>Environmental Score Design, Policy Rationale</t>
+  </si>
+  <si>
+    <t>TEK and ML Integration</t>
+  </si>
+  <si>
+    <t>https://arxiv.org/abs/2006.12387</t>
+  </si>
+  <si>
+    <t>TEK can be modularized and scaled using algorithmic logic for ecosystem restoration.</t>
+  </si>
+  <si>
+    <t>Informs the plug-and-play model design treating tribal practices as scalable modules.</t>
+  </si>
+  <si>
+    <t>Model Architecture, Scalability Strategy</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -54,6 +120,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -63,7 +137,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -71,43 +145,49 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="Invisible" pivot="0" table="0" count="0" xr9:uid="{FABBF339-F8CF-45DD-9A76-7AAB1363F3AC}"/>
+  </tableStyles>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -145,7 +225,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -179,6 +259,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -213,9 +294,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -388,14 +470,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="44.6640625" customWidth="1"/>
+    <col min="3" max="3" width="42.6640625" customWidth="1"/>
+    <col min="4" max="4" width="30.44140625" customWidth="1"/>
+    <col min="5" max="5" width="34.44140625" customWidth="1"/>
+    <col min="6" max="6" width="28.77734375" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -415,7 +507,99 @@
         <v>5</v>
       </c>
     </row>
+    <row r="2" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A2" s="2">
+        <v>45819</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A3" s="2">
+        <v>45819</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A4" s="2">
+        <v>45819</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A5" s="2">
+        <v>45819</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{C47E9D42-3350-4FE0-9685-CBC72D3D8073}"/>
+    <hyperlink ref="C3" r:id="rId2" display="https://prism.sustainability-directory.com/" xr:uid="{1E001FB3-0F20-45D1-9AC6-A731C8962299}"/>
+    <hyperlink ref="C4" r:id="rId3" display="https://eprints.whiterose.ac.uk/208764/7/" xr:uid="{4DF3B078-E311-4915-ABF5-6CE1525A309A}"/>
+    <hyperlink ref="C5" r:id="rId4" xr:uid="{E86A1D8B-04A2-4210-B954-FD36B68725E6}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
+<clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata">
+  <clbl:label id="{89db4e91-bad5-4fd0-9ca4-c06485916e3a}" enabled="1" method="Standard" siteId="{f66fae02-5d36-495b-bfe0-78a6ff9f8e6e}" contentBits="0" removed="0"/>
+</clbl:labelList>
 </file>